--- a/data/trans_orig/CoTrAQ-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD525660-5568-4890-9405-F125483DD0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{600A8C33-387C-4987-AA55-BB03264F7F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13FC7C87-DFCC-423B-8392-39730F3A317C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DF6D8DE-F83B-4307-9A74-A67A183B2D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="348">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -173,550 +173,547 @@
     <t>81,8%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -725,319 +722,319 @@
     <t>55,44%</t>
   </si>
   <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
   <si>
     <t>61,18%</t>
   </si>
   <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>11,23%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
+    <t>8,57%</t>
+  </si>
+  <si>
     <t>10,0%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>18,64%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1497,7 +1494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A419A1-B0E0-4079-BBF2-F8124E66EAD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF69DF7-1D3A-4C6C-91D3-55F735245014}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2623,7 +2620,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2827,7 +2824,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -2860,7 +2857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4436FE80-A1E5-43BE-959A-98AB1B8B4BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93186A5E-2937-4ECA-B878-5AF00CCE7B0E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3170,10 +3167,10 @@
         <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3185,13 @@
         <v>131695</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H8" s="7">
         <v>83</v>
@@ -3203,13 +3200,13 @@
         <v>89041</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M8" s="7">
         <v>211</v>
@@ -3218,13 +3215,13 @@
         <v>220737</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3343,13 +3340,13 @@
         <v>1075706</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>1124</v>
@@ -3358,13 +3355,13 @@
         <v>1210866</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>2139</v>
@@ -3373,13 +3370,13 @@
         <v>2286572</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3391,13 @@
         <v>136443</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H12" s="7">
         <v>91</v>
@@ -3409,13 +3406,13 @@
         <v>99783</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M12" s="7">
         <v>220</v>
@@ -3424,13 +3421,13 @@
         <v>236226</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3442,13 @@
         <v>157287</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -3460,13 +3457,13 @@
         <v>115056</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>258</v>
@@ -3475,13 +3472,13 @@
         <v>272342</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3493,13 @@
         <v>594522</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>311</v>
@@ -3511,13 +3508,13 @@
         <v>332098</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
@@ -3526,13 +3523,13 @@
         <v>926620</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,37 +3603,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3648,13 @@
         <v>170918</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -3666,13 +3663,13 @@
         <v>232709</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -3681,13 +3678,13 @@
         <v>403627</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3699,13 @@
         <v>24808</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -3717,13 +3714,13 @@
         <v>28552</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3732,13 +3729,13 @@
         <v>53360</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3750,13 @@
         <v>34045</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3768,13 +3765,13 @@
         <v>27378</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -3783,13 +3780,13 @@
         <v>61423</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3801,13 @@
         <v>251410</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -3819,13 +3816,13 @@
         <v>169992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>383</v>
@@ -3834,13 +3831,13 @@
         <v>421402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3956,13 @@
         <v>2043836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H23" s="7">
         <v>2460</v>
@@ -3974,13 +3971,13 @@
         <v>2650615</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M23" s="7">
         <v>4369</v>
@@ -3989,13 +3986,13 @@
         <v>4694451</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4007,13 @@
         <v>183139</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>138</v>
@@ -4025,13 +4022,13 @@
         <v>154458</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>308</v>
@@ -4040,13 +4037,13 @@
         <v>337597</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4058,13 @@
         <v>215180</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>149</v>
@@ -4076,13 +4073,13 @@
         <v>158026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>351</v>
@@ -4091,13 +4088,13 @@
         <v>373205</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4109,13 @@
         <v>977628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
@@ -4127,13 +4124,13 @@
         <v>591131</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>1468</v>
@@ -4142,13 +4139,13 @@
         <v>1568759</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,7 +4220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BFC55B-A884-4C47-80E9-76CD57FB9A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB3AAB2-C962-4EA5-8985-167BA642E99A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4240,7 +4237,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4353,7 +4350,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4368,7 +4365,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4398,13 +4395,13 @@
         <v>611229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>820</v>
@@ -4413,13 +4410,13 @@
         <v>922573</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>1448</v>
@@ -4428,13 +4425,13 @@
         <v>1533802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4446,13 @@
         <v>50105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4464,13 +4461,13 @@
         <v>28055</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>75</v>
@@ -4479,13 +4476,13 @@
         <v>78160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4497,13 @@
         <v>29036</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4515,13 +4512,13 @@
         <v>16792</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4530,13 +4527,13 @@
         <v>45828</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4548,13 @@
         <v>63978</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -4566,13 +4563,13 @@
         <v>27240</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -4581,13 +4578,13 @@
         <v>91218</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,7 +4658,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4676,7 +4673,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4691,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4703,13 @@
         <v>1151188</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>1270</v>
@@ -4721,13 +4718,13 @@
         <v>1335525</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>2357</v>
@@ -4736,13 +4733,13 @@
         <v>2486713</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4754,13 @@
         <v>238083</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H12" s="7">
         <v>203</v>
@@ -4772,13 +4769,13 @@
         <v>205308</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>421</v>
@@ -4787,13 +4784,13 @@
         <v>443392</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4805,13 @@
         <v>212552</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -4823,13 +4820,13 @@
         <v>138407</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
@@ -4838,13 +4835,13 @@
         <v>350959</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4856,13 @@
         <v>474563</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -4874,13 +4871,13 @@
         <v>309059</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>746</v>
@@ -4889,13 +4886,13 @@
         <v>783622</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,7 +4966,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4999,7 +4996,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5011,13 @@
         <v>196278</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -5029,13 +5026,13 @@
         <v>240687</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -5044,13 +5041,13 @@
         <v>436965</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5062,13 @@
         <v>53897</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>62</v>
@@ -5080,13 +5077,13 @@
         <v>64325</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>109</v>
@@ -5095,13 +5092,13 @@
         <v>118222</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5113,13 @@
         <v>62635</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -5131,13 +5128,13 @@
         <v>64946</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -5146,13 +5143,13 @@
         <v>127581</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5164,13 @@
         <v>234076</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>172</v>
@@ -5182,13 +5179,13 @@
         <v>179182</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>389</v>
@@ -5197,13 +5194,13 @@
         <v>413258</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5319,13 @@
         <v>1958694</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H23" s="7">
         <v>2317</v>
@@ -5337,13 +5334,13 @@
         <v>2498785</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M23" s="7">
         <v>4212</v>
@@ -5352,13 +5349,13 @@
         <v>4457480</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5370,13 @@
         <v>342084</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>293</v>
@@ -5388,13 +5385,13 @@
         <v>297688</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>605</v>
@@ -5403,10 +5400,10 @@
         <v>639773</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>315</v>
@@ -5439,13 +5436,13 @@
         <v>220145</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>503</v>
@@ -5454,13 +5451,13 @@
         <v>524367</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,13 +5472,13 @@
         <v>772617</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H26" s="7">
         <v>499</v>
@@ -5490,13 +5487,13 @@
         <v>515482</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M26" s="7">
         <v>1221</v>
@@ -5505,13 +5502,13 @@
         <v>1288098</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,7 +5583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAAA3AC-63C1-4AE6-9233-C54A0D9DC122}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F608D0-8E3E-4494-9FDA-CB30EF164E7C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5603,7 +5600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5713,7 +5710,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -5728,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -5743,7 +5740,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -5767,22 +5764,22 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5818,22 +5815,22 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5869,22 +5866,22 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5920,22 +5917,22 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6021,7 +6018,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -6030,13 +6027,13 @@
         <v>2921</v>
       </c>
       <c r="I10" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -6051,7 +6048,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -6075,7 +6072,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6090,22 +6087,22 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,7 +6123,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6141,22 +6138,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,7 +6174,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6192,22 +6189,22 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,7 +6225,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6243,22 +6240,22 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,7 +6282,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6329,7 +6326,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -6344,7 +6341,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -6359,7 +6356,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -6383,7 +6380,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6398,7 +6395,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6413,7 +6410,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6431,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6449,7 +6446,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6464,7 +6461,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,7 +6482,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6500,7 +6497,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6515,7 +6512,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6533,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6551,7 +6548,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6566,7 +6563,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,7 +6628,7 @@
         <v>3364</v>
       </c>
       <c r="D22" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
@@ -6652,7 +6649,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -6661,13 +6658,13 @@
         <v>8716</v>
       </c>
       <c r="N22" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -6706,7 +6703,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6721,7 +6718,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,7 +6754,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6772,7 +6769,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,7 +6805,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6823,7 +6820,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,7 +6856,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6874,7 +6871,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,7 +6883,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -6916,7 +6913,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoTrAQ-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{600A8C33-387C-4987-AA55-BB03264F7F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF911E6-C98C-4783-9127-3557C3D5429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DF6D8DE-F83B-4307-9A74-A67A183B2D6D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0763DE0-61AF-499F-B24A-72F455AFEAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="345">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -173,856 +173,847 @@
     <t>81,8%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
   </si>
   <si>
     <t>59,7%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>6,99%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>8,24%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>13,39%</t>
+    <t>13,48%</t>
   </si>
   <si>
     <t>15,81%</t>
@@ -1034,7 +1025,7 @@
     <t>17,64%</t>
   </si>
   <si>
-    <t>19,59%</t>
+    <t>19,56%</t>
   </si>
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1494,7 +1485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF69DF7-1D3A-4C6C-91D3-55F735245014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ADD3B0-69C7-459E-9010-34CC6235E09E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1974,7 +1965,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2178,7 +2169,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2590,7 +2581,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2794,7 +2785,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -2857,7 +2848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93186A5E-2937-4ECA-B878-5AF00CCE7B0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF24CB4A-D7C1-4E81-82FB-E2A9EAF88308}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3167,10 +3158,10 @@
         <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3176,13 @@
         <v>131695</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="7">
         <v>83</v>
@@ -3200,13 +3191,13 @@
         <v>89041</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" s="7">
         <v>211</v>
@@ -3215,13 +3206,13 @@
         <v>220737</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3340,13 +3331,13 @@
         <v>1075706</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>1124</v>
@@ -3355,13 +3346,13 @@
         <v>1210866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>2139</v>
@@ -3370,13 +3361,13 @@
         <v>2286572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3382,13 @@
         <v>136443</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" s="7">
         <v>91</v>
@@ -3406,13 +3397,13 @@
         <v>99783</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M12" s="7">
         <v>220</v>
@@ -3421,13 +3412,13 @@
         <v>236226</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3433,13 @@
         <v>157287</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -3457,13 +3448,13 @@
         <v>115056</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
         <v>258</v>
@@ -3472,13 +3463,13 @@
         <v>272342</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3484,13 @@
         <v>594522</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>311</v>
@@ -3508,13 +3499,13 @@
         <v>332098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M14" s="7">
         <v>874</v>
@@ -3523,13 +3514,13 @@
         <v>926620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,7 +3594,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3618,7 +3609,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3633,7 +3624,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3639,13 @@
         <v>170918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -3663,13 +3654,13 @@
         <v>232709</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -3678,13 +3669,13 @@
         <v>403627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3690,13 @@
         <v>24808</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -3714,13 +3705,13 @@
         <v>28552</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3729,13 +3720,13 @@
         <v>53360</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3741,13 @@
         <v>34045</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3765,13 +3756,13 @@
         <v>27378</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -3780,13 +3771,13 @@
         <v>61423</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3792,13 @@
         <v>251410</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -3816,13 +3807,13 @@
         <v>169992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" s="7">
         <v>383</v>
@@ -3831,13 +3822,13 @@
         <v>421402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,13 +3947,13 @@
         <v>2043836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>2460</v>
@@ -3971,13 +3962,13 @@
         <v>2650615</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>4369</v>
@@ -3986,13 +3977,13 @@
         <v>4694451</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3998,13 @@
         <v>183139</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>138</v>
@@ -4022,13 +4013,13 @@
         <v>154458</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>308</v>
@@ -4037,13 +4028,13 @@
         <v>337597</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4049,13 @@
         <v>215180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>149</v>
@@ -4073,13 +4064,13 @@
         <v>158026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>351</v>
@@ -4088,13 +4079,13 @@
         <v>373205</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4100,13 @@
         <v>977628</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
@@ -4124,13 +4115,13 @@
         <v>591131</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>1468</v>
@@ -4139,13 +4130,13 @@
         <v>1568759</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,7 +4211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB3AAB2-C962-4EA5-8985-167BA642E99A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F075D008-6447-496D-9528-EB9D548AD748}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4237,7 +4228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4350,7 +4341,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4365,7 +4356,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4395,13 +4386,13 @@
         <v>611229</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>820</v>
@@ -4410,13 +4401,13 @@
         <v>922573</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>1448</v>
@@ -4425,13 +4416,13 @@
         <v>1533802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4437,13 @@
         <v>50105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4461,13 +4452,13 @@
         <v>28055</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M6" s="7">
         <v>75</v>
@@ -4476,13 +4467,13 @@
         <v>78160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4488,13 @@
         <v>29036</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4512,13 +4503,13 @@
         <v>16792</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -4527,13 +4518,13 @@
         <v>45828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4539,13 @@
         <v>63978</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -4563,13 +4554,13 @@
         <v>27240</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -4578,13 +4569,13 @@
         <v>91218</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,7 +4649,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4673,7 +4664,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4688,7 +4679,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4694,13 @@
         <v>1151188</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="H11" s="7">
         <v>1270</v>
@@ -4718,13 +4709,13 @@
         <v>1335525</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>2357</v>
@@ -4733,13 +4724,13 @@
         <v>2486713</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4745,13 @@
         <v>238083</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H12" s="7">
         <v>203</v>
@@ -4769,13 +4760,13 @@
         <v>205308</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M12" s="7">
         <v>421</v>
@@ -4784,13 +4775,13 @@
         <v>443392</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4796,13 @@
         <v>212552</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -4820,13 +4811,13 @@
         <v>138407</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
@@ -4835,13 +4826,13 @@
         <v>350959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4847,13 @@
         <v>474563</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -4871,13 +4862,13 @@
         <v>309059</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>746</v>
@@ -4886,13 +4877,13 @@
         <v>783622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,7 +4957,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4996,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5002,13 @@
         <v>196278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -5026,13 +5017,13 @@
         <v>240687</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -5041,13 +5032,13 @@
         <v>436965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5053,13 @@
         <v>53897</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H18" s="7">
         <v>62</v>
@@ -5077,13 +5068,13 @@
         <v>64325</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M18" s="7">
         <v>109</v>
@@ -5092,13 +5083,13 @@
         <v>118222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5104,13 @@
         <v>62635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -5128,13 +5119,13 @@
         <v>64946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -5143,13 +5134,13 @@
         <v>127581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5155,13 @@
         <v>234076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>172</v>
@@ -5179,13 +5170,13 @@
         <v>179182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>389</v>
@@ -5194,13 +5185,13 @@
         <v>413258</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5310,13 @@
         <v>1958694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>2317</v>
@@ -5334,13 +5325,13 @@
         <v>2498785</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>4212</v>
@@ -5349,13 +5340,13 @@
         <v>4457480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5361,13 @@
         <v>342084</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H24" s="7">
         <v>293</v>
@@ -5385,13 +5376,13 @@
         <v>297688</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M24" s="7">
         <v>605</v>
@@ -5400,13 +5391,13 @@
         <v>639773</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5412,13 @@
         <v>304222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H25" s="7">
         <v>217</v>
@@ -5436,13 +5427,13 @@
         <v>220145</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>503</v>
@@ -5451,13 +5442,13 @@
         <v>524367</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5463,13 @@
         <v>772617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>499</v>
@@ -5487,13 +5478,13 @@
         <v>515482</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>1221</v>
@@ -5502,13 +5493,13 @@
         <v>1288098</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,7 +5574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F608D0-8E3E-4494-9FDA-CB30EF164E7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAAA6F8-BDE4-4E70-B76D-35BF139D45F1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5600,7 +5591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5710,7 +5701,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -5725,7 +5716,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -5740,7 +5731,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -5764,7 +5755,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5779,7 +5770,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5815,7 +5806,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5830,7 +5821,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5866,7 +5857,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5881,7 +5872,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5917,7 +5908,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5932,7 +5923,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6018,7 +6009,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -6033,7 +6024,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -6048,7 +6039,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -6072,7 +6063,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6087,7 +6078,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6102,7 +6093,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6138,7 +6129,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6153,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,7 +6165,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6189,7 +6180,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6204,7 +6195,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,7 +6216,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6240,7 +6231,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6255,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,7 +6317,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -6341,7 +6332,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -6356,7 +6347,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -6380,7 +6371,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6395,7 +6386,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6410,7 +6401,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,7 +6422,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6446,7 +6437,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6461,7 +6452,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,7 +6473,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6497,7 +6488,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6512,7 +6503,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,7 +6524,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6548,7 +6539,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6563,7 +6554,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,7 +6640,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -6664,7 +6655,7 @@
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -6703,7 +6694,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6718,7 +6709,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6769,7 +6760,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +6796,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6820,7 +6811,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,7 +6847,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6871,7 +6862,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/CoTrAQ-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF911E6-C98C-4783-9127-3557C3D5429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1001235F-2F09-4493-9541-89D6D8640AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0763DE0-61AF-499F-B24A-72F455AFEAF4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E59E22A-CA18-42C7-A9B6-07D13F9E19B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="349">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -173,109 +173,109 @@
     <t>81,8%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -284,538 +284,550 @@
     <t>54,77%</t>
   </si>
   <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
   </si>
   <si>
     <t>68,89%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>13,03%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>6,01%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -827,103 +839,106 @@
     <t>35,89%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
   </si>
   <si>
     <t>43,83%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>36,96%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>13,0%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>14,74%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>42,8%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>57,99%</t>
@@ -932,100 +947,97 @@
     <t>56,25%</t>
   </si>
   <si>
-    <t>59,7%</t>
+    <t>59,63%</t>
   </si>
   <si>
     <t>70,75%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>64,51%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>10,0%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>18,64%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1485,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ADD3B0-69C7-459E-9010-34CC6235E09E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB2BD87-D672-4D92-B3C8-797A608B3E13}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1965,7 +1977,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2169,7 +2181,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2581,7 +2593,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2611,7 +2623,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2785,7 +2797,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -2815,7 +2827,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -2848,7 +2860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF24CB4A-D7C1-4E81-82FB-E2A9EAF88308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2330A312-6E52-4099-9525-C590135FD6BF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3998,13 +4010,13 @@
         <v>183139</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>138</v>
@@ -4013,13 +4025,13 @@
         <v>154458</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>308</v>
@@ -4028,13 +4040,13 @@
         <v>337597</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4061,13 @@
         <v>215180</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>149</v>
@@ -4064,13 +4076,13 @@
         <v>158026</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>351</v>
@@ -4079,13 +4091,13 @@
         <v>373205</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4112,13 @@
         <v>977628</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>547</v>
@@ -4115,13 +4127,13 @@
         <v>591131</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>1468</v>
@@ -4130,13 +4142,13 @@
         <v>1568759</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,7 +4223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F075D008-6447-496D-9528-EB9D548AD748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF74A32B-0A19-4503-9A20-A75CB1AEA1F7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4228,7 +4240,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4341,22 +4353,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4386,13 +4398,13 @@
         <v>611229</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>820</v>
@@ -4401,13 +4413,13 @@
         <v>922573</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>1448</v>
@@ -4416,13 +4428,13 @@
         <v>1533802</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4449,13 @@
         <v>50105</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4452,13 +4464,13 @@
         <v>28055</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M6" s="7">
         <v>75</v>
@@ -4467,10 +4479,10 @@
         <v>78160</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>209</v>
@@ -4488,13 +4500,13 @@
         <v>29036</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4518,13 +4530,13 @@
         <v>45828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4551,13 @@
         <v>63978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -4554,13 +4566,13 @@
         <v>27240</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -4569,13 +4581,13 @@
         <v>91218</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4706,13 @@
         <v>1151188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>1270</v>
@@ -4709,13 +4721,13 @@
         <v>1335525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>2357</v>
@@ -4724,13 +4736,13 @@
         <v>2486713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4757,13 @@
         <v>238083</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H12" s="7">
         <v>203</v>
@@ -4760,13 +4772,13 @@
         <v>205308</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>421</v>
@@ -4775,13 +4787,13 @@
         <v>443392</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4808,13 @@
         <v>212552</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -4811,13 +4823,13 @@
         <v>138407</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
@@ -4826,13 +4838,13 @@
         <v>350959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4859,13 @@
         <v>474563</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -4862,13 +4874,13 @@
         <v>309059</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>746</v>
@@ -4877,13 +4889,13 @@
         <v>783622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,7 +4969,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4987,7 +4999,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5014,13 @@
         <v>196278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -5017,13 +5029,13 @@
         <v>240687</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -5032,13 +5044,13 @@
         <v>436965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5065,13 @@
         <v>53897</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>62</v>
@@ -5068,13 +5080,13 @@
         <v>64325</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>109</v>
@@ -5083,13 +5095,13 @@
         <v>118222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5116,13 @@
         <v>62635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
         <v>65</v>
@@ -5119,13 +5131,13 @@
         <v>64946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -5134,13 +5146,13 @@
         <v>127581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5167,13 @@
         <v>234076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>172</v>
@@ -5170,13 +5182,13 @@
         <v>179182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>389</v>
@@ -5185,13 +5197,13 @@
         <v>413258</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5322,13 @@
         <v>1958694</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H23" s="7">
         <v>2317</v>
@@ -5325,13 +5337,13 @@
         <v>2498785</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
         <v>4212</v>
@@ -5340,13 +5352,13 @@
         <v>4457480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5373,13 @@
         <v>342084</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>293</v>
@@ -5376,13 +5388,13 @@
         <v>297688</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>605</v>
@@ -5391,13 +5403,13 @@
         <v>639773</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5424,13 @@
         <v>304222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H25" s="7">
         <v>217</v>
@@ -5430,10 +5442,10 @@
         <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M25" s="7">
         <v>503</v>
@@ -5442,13 +5454,13 @@
         <v>524367</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5475,13 @@
         <v>772617</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H26" s="7">
         <v>499</v>
@@ -5478,13 +5490,13 @@
         <v>515482</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M26" s="7">
         <v>1221</v>
@@ -5493,13 +5505,13 @@
         <v>1288098</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,7 +5586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAAA6F8-BDE4-4E70-B76D-35BF139D45F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD05BF7-0F00-4035-9C01-A4DDD0984AB7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5591,7 +5603,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5701,7 +5713,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -5716,7 +5728,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -5731,7 +5743,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -5755,7 +5767,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5770,7 +5782,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5806,7 +5818,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5821,7 +5833,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5857,7 +5869,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5872,7 +5884,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5908,7 +5920,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5923,7 +5935,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6009,7 +6021,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -6018,13 +6030,13 @@
         <v>2921</v>
       </c>
       <c r="I10" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -6039,7 +6051,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -6078,7 +6090,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6093,7 +6105,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6141,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6144,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,7 +6192,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6195,7 +6207,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,7 +6243,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6246,7 +6258,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,7 +6285,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6317,7 +6329,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -6332,7 +6344,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -6347,7 +6359,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -6371,7 +6383,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6386,7 +6398,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6401,7 +6413,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,7 +6434,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6437,7 +6449,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6452,7 +6464,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,7 +6485,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6488,7 +6500,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6503,7 +6515,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6536,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6539,7 +6551,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6554,7 +6566,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,7 +6631,7 @@
         <v>3364</v>
       </c>
       <c r="D22" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
@@ -6640,7 +6652,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -6649,13 +6661,13 @@
         <v>8716</v>
       </c>
       <c r="N22" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -6694,7 +6706,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6709,7 +6721,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,7 +6757,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6760,7 +6772,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,7 +6808,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6811,7 +6823,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,7 +6859,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6862,7 +6874,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,7 +6886,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -6904,7 +6916,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoTrAQ-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1001235F-2F09-4493-9541-89D6D8640AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F41B9D1F-53C6-47DF-A48B-1C3E447205C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E59E22A-CA18-42C7-A9B6-07D13F9E19B5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A176D4E6-A5DE-496E-BE37-F636547D31C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="349">
   <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>No recogida</t>
+    <t>No recogida en edición</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,7 +89,7 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>No Procede</t>
+    <t>No procede</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,13 +107,13 @@
     <t>99,92%</t>
   </si>
   <si>
-    <t>ROJO</t>
-  </si>
-  <si>
-    <t>AMARILLO</t>
-  </si>
-  <si>
-    <t>VERDE</t>
+    <t>Exposición psicosocial más desfavorable para la salud</t>
+  </si>
+  <si>
+    <t>Exposición psicosocial intermedia</t>
+  </si>
+  <si>
+    <t>Exposición psicosocial más favorable para la salud</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,7 +161,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -608,7 +608,7 @@
     <t>23,47%</t>
   </si>
   <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,25%</t>
@@ -1040,7 +1040,7 @@
     <t>19,53%</t>
   </si>
   <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>99,72%</t>
@@ -1497,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB2BD87-D672-4D92-B3C8-797A608B3E13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2500A6A3-1832-41FF-9904-0A398F7F135D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1699,7 +1699,7 @@
         <v>2329</v>
       </c>
       <c r="N5" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1903,7 +1903,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1977,7 +1977,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2181,7 +2181,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2593,7 +2593,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2608,7 +2608,7 @@
         <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
@@ -2623,7 +2623,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2797,7 +2797,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -2812,7 +2812,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -2827,7 +2827,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -2860,7 +2860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2330A312-6E52-4099-9525-C590135FD6BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB6D902-B5C5-4038-98CD-CC56772337ED}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3047,7 +3047,7 @@
         <v>1126</v>
       </c>
       <c r="I5" s="7">
-        <v>1207040</v>
+        <v>1207041</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>46</v>
@@ -3251,7 +3251,7 @@
         <v>1247</v>
       </c>
       <c r="I9" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3678,7 +3678,7 @@
         <v>366</v>
       </c>
       <c r="N17" s="7">
-        <v>403627</v>
+        <v>403628</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>125</v>
@@ -3882,7 +3882,7 @@
         <v>850</v>
       </c>
       <c r="N21" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4223,7 +4223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF74A32B-0A19-4503-9A20-A75CB1AEA1F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA5C6BE-58DA-4D83-9488-0635D0D40460}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5041,7 +5041,7 @@
         <v>407</v>
       </c>
       <c r="N17" s="7">
-        <v>436965</v>
+        <v>436966</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>271</v>
@@ -5245,7 +5245,7 @@
         <v>1027</v>
       </c>
       <c r="N21" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5586,7 +5586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD05BF7-0F00-4035-9C01-A4DDD0984AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8983233-B080-42EC-846C-EFA529D2C499}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5707,7 +5707,7 @@
         <v>691</v>
       </c>
       <c r="D4" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -5722,7 +5722,7 @@
         <v>1427</v>
       </c>
       <c r="I4" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>17</v>
@@ -5737,7 +5737,7 @@
         <v>2118</v>
       </c>
       <c r="N4" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -5962,7 +5962,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5977,7 +5977,7 @@
         <v>1427</v>
       </c>
       <c r="I9" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5992,7 +5992,7 @@
         <v>2118</v>
       </c>
       <c r="N9" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -6015,7 +6015,7 @@
         <v>1992</v>
       </c>
       <c r="D10" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -6030,7 +6030,7 @@
         <v>2921</v>
       </c>
       <c r="I10" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>17</v>
@@ -6045,7 +6045,7 @@
         <v>4913</v>
       </c>
       <c r="N10" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>17</v>
@@ -6270,7 +6270,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6285,7 +6285,7 @@
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6300,7 +6300,7 @@
         <v>4913</v>
       </c>
       <c r="N15" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6323,7 +6323,7 @@
         <v>681</v>
       </c>
       <c r="D16" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -6338,7 +6338,7 @@
         <v>1004</v>
       </c>
       <c r="I16" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>17</v>
@@ -6353,7 +6353,7 @@
         <v>1685</v>
       </c>
       <c r="N16" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>17</v>
@@ -6578,7 +6578,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6593,7 +6593,7 @@
         <v>1004</v>
       </c>
       <c r="I21" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6608,7 +6608,7 @@
         <v>1685</v>
       </c>
       <c r="N21" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6631,7 +6631,7 @@
         <v>3364</v>
       </c>
       <c r="D22" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
@@ -6646,7 +6646,7 @@
         <v>5352</v>
       </c>
       <c r="I22" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>17</v>
@@ -6661,7 +6661,7 @@
         <v>8716</v>
       </c>
       <c r="N22" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>17</v>
@@ -6886,7 +6886,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -6901,7 +6901,7 @@
         <v>5352</v>
       </c>
       <c r="I27" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -6916,7 +6916,7 @@
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
